--- a/downloaded_files/MDPS493_Tutorial-35587.xlsx
+++ b/downloaded_files/MDPS493_Tutorial-35587.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,24 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Eslam Wael Yaseen Al sayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد محمود حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar mohamed Mahmoud hussien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200838</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هشام أيمن ابوعجيله على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hisham Ayman Abo Egila Ali</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,7 +164,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +464,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -623,70 +605,6 @@
       <x:c r="S3" s="2" t="s"/>
       <x:c r="T3" s="2" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:20">
-      <x:c r="A4" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="3">
-        <x:v>45909.4368392708</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s"/>
-      <x:c r="G4" s="2" t="s"/>
-      <x:c r="H4" s="2" t="s"/>
-      <x:c r="I4" s="2" t="s"/>
-      <x:c r="J4" s="2" t="s"/>
-      <x:c r="K4" s="2" t="s"/>
-      <x:c r="L4" s="2" t="s"/>
-      <x:c r="M4" s="2" t="s"/>
-      <x:c r="N4" s="2" t="s"/>
-      <x:c r="O4" s="2" t="s"/>
-      <x:c r="P4" s="2" t="s"/>
-      <x:c r="Q4" s="2" t="s"/>
-      <x:c r="R4" s="2" t="s"/>
-      <x:c r="S4" s="2" t="s"/>
-      <x:c r="T4" s="2" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:20">
-      <x:c r="A5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="3">
-        <x:v>45906.6875249653</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s"/>
-      <x:c r="G5" s="2" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="L5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="2" t="s"/>
-      <x:c r="Q5" s="2" t="s"/>
-      <x:c r="R5" s="2" t="s"/>
-      <x:c r="S5" s="2" t="s"/>
-      <x:c r="T5" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
